--- a/premise/data/additional_inventories/lci-methanol-heating.xlsx
+++ b/premise/data/additional_inventories/lci-methanol-heating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65A2DF7-9337-0747-AD7C-9C63072333D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20A0697-FC45-3F48-A309-D16DAA674811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38940" yWindow="740" windowWidth="26440" windowHeight="15440" xr2:uid="{56DD376B-3FB3-974E-BC88-AA42AC75F16A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="90">
   <si>
     <t>Activity</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>Carbon monoxide, fossil</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Europe without Switzerland</t>
   </si>
 </sst>
 </file>
@@ -704,13 +710,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B5158D-BF09-CE4B-9D78-BA0E638D2994}">
   <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+    <col min="1" max="1" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -1162,7 +1168,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>26</v>
@@ -2067,7 +2073,7 @@
         <v>8</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>26</v>
@@ -2167,10 +2173,11 @@
         <v>62</v>
       </c>
       <c r="B60" s="6">
-        <v>6.25E-2</v>
+        <f>0.0625/1000</f>
+        <v>6.2500000000000001E-5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>63</v>
@@ -2872,7 +2879,7 @@
         <v>8</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>26</v>
@@ -2972,10 +2979,11 @@
         <v>62</v>
       </c>
       <c r="B84" s="6">
-        <v>6.25E-2</v>
+        <f>0.0625/1000</f>
+        <v>6.2500000000000001E-5</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>63</v>
@@ -3677,7 +3685,7 @@
         <v>8</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>26</v>
@@ -3777,10 +3785,11 @@
         <v>62</v>
       </c>
       <c r="B107" s="6">
-        <v>6.25E-2</v>
+        <f>0.0625/1000</f>
+        <v>6.2500000000000001E-5</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>63</v>

--- a/premise/data/additional_inventories/lci-methanol-heating.xlsx
+++ b/premise/data/additional_inventories/lci-methanol-heating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20A0697-FC45-3F48-A309-D16DAA674811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DBF590-88FE-F54C-9177-89EEC0FC50AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38940" yWindow="740" windowWidth="26440" windowHeight="15440" xr2:uid="{56DD376B-3FB3-974E-BC88-AA42AC75F16A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{56DD376B-3FB3-974E-BC88-AA42AC75F16A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B5158D-BF09-CE4B-9D78-BA0E638D2994}">
   <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2561,7 +2561,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="7">
-        <v>5.5555555555555559E-2</v>
+        <v>5.5555555555555601E-2</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>8</v>
